--- a/picture.xlsx
+++ b/picture.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\33782\Desktop\Mémoire F1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3E5D755-D1A9-491B-B6B3-FA8C05F53268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5BDC8FA-A96D-42D5-96E0-7CC80092DFB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="picture" sheetId="1" r:id="rId1"/>
@@ -127,9 +127,6 @@
     <t>Alexander Albon</t>
   </si>
   <si>
-    <t>C:/Users/33782/Desktop/Mémoire F1/Picture/albon.jpg</t>
-  </si>
-  <si>
     <t>Logan Sargeant</t>
   </si>
   <si>
@@ -146,12 +143,15 @@
   </si>
   <si>
     <t>C:/Users/33782/Desktop/Mémoire F1/Picture/zhou.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/Mohbadi/AppF1/blob/main/Picture/albon.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1005,11 +1005,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1155,31 +1155,31 @@
         <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
         <v>36</v>
-      </c>
-      <c r="B19" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" t="s">
         <v>38</v>
-      </c>
-      <c r="B20" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" t="s">
         <v>40</v>
-      </c>
-      <c r="B21" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/picture.xlsx
+++ b/picture.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\33782\Desktop\Mémoire F1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5BDC8FA-A96D-42D5-96E0-7CC80092DFB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53DD127F-2CC6-4CEF-8DBD-7554AEB82BAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -145,14 +145,14 @@
     <t>C:/Users/33782/Desktop/Mémoire F1/Picture/zhou.jpg</t>
   </si>
   <si>
-    <t>https://github.com/Mohbadi/AppF1/blob/main/Picture/albon.jpg</t>
+    <t>https://raw.githubusercontent.com/Mohbadi/AppF1/main/Picture/albon.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -283,6 +283,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -585,7 +593,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -628,11 +636,13 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20 % - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20 % - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -662,6 +672,7 @@
     <cellStyle name="Cellule liée" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Entrée" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Insatisfaisant" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Lien hypertexte" xfId="42" builtinId="8"/>
     <cellStyle name="Neutre" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
@@ -1009,7 +1020,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1154,7 +1165,7 @@
       <c r="A18" t="s">
         <v>34</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1183,6 +1194,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B18" r:id="rId1" xr:uid="{AEFADA28-D4D7-4758-88F1-53F73689FC00}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/picture.xlsx
+++ b/picture.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\33782\Desktop\Mémoire F1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53DD127F-2CC6-4CEF-8DBD-7554AEB82BAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA925A8-F960-49EB-9356-402A267B102D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,121 +31,121 @@
     <t>Lewis Hamilton</t>
   </si>
   <si>
-    <t>C:/Users/33782/Desktop/Mémoire F1/Picture/ham.jpg</t>
-  </si>
-  <si>
     <t>George Russel</t>
   </si>
   <si>
-    <t>C:/Users/33782/Desktop/Mémoire F1/Picture/russel.jpg</t>
-  </si>
-  <si>
     <t>Max Verstappen</t>
   </si>
   <si>
-    <t>C:/Users/33782/Desktop/Mémoire F1/Picture/verstappen.jpg</t>
-  </si>
-  <si>
     <t>Sergio Pérez</t>
   </si>
   <si>
-    <t>C:/Users/33782/Desktop/Mémoire F1/Picture/perez.jpg</t>
-  </si>
-  <si>
     <t>Charles Leclerc</t>
   </si>
   <si>
-    <t>C:/Users/33782/Desktop/Mémoire F1/Picture/leclerc.jpg</t>
-  </si>
-  <si>
     <t>Carlos Sainz</t>
   </si>
   <si>
-    <t>C:/Users/33782/Desktop/Mémoire F1/Picture/sainz.jpg</t>
-  </si>
-  <si>
     <t>Lando Norris</t>
   </si>
   <si>
-    <t>C:/Users/33782/Desktop/Mémoire F1/Picture/norris.jpg</t>
-  </si>
-  <si>
     <t>Oscar Piastri</t>
   </si>
   <si>
-    <t>C:/Users/33782/Desktop/Mémoire F1/Picture/piastri.jpg</t>
-  </si>
-  <si>
     <t>Daniel Ricciardo</t>
   </si>
   <si>
-    <t>C:/Users/33782/Desktop/Mémoire F1/Picture/ricardo.jpg</t>
-  </si>
-  <si>
     <t>Yuki Tsunoda</t>
   </si>
   <si>
-    <t>C:/Users/33782/Desktop/Mémoire F1/Picture/tsunoda.jpg</t>
-  </si>
-  <si>
     <t>Esteban Ocon</t>
   </si>
   <si>
-    <t>C:/Users/33782/Desktop/Mémoire F1/Picture/ocon.jpg</t>
-  </si>
-  <si>
     <t>Pierre Gasly</t>
   </si>
   <si>
-    <t>C:/Users/33782/Desktop/Mémoire F1/Picture/gasly.jpg</t>
-  </si>
-  <si>
     <t>Fernando Alonso</t>
   </si>
   <si>
-    <t>C:/Users/33782/Desktop/Mémoire F1/Picture/alonso.jpg</t>
-  </si>
-  <si>
     <t>Lance Stroll</t>
   </si>
   <si>
-    <t>C:/Users/33782/Desktop/Mémoire F1/Picture/stroll.jpg</t>
-  </si>
-  <si>
     <t>Nico Hulkenberg</t>
   </si>
   <si>
-    <t>C:/Users/33782/Desktop/Mémoire F1/Picture/hulk.jpg</t>
-  </si>
-  <si>
     <t>Kevin Magnussen</t>
   </si>
   <si>
-    <t>C:/Users/33782/Desktop/Mémoire F1/Picture/images.jpg</t>
-  </si>
-  <si>
     <t>Alexander Albon</t>
   </si>
   <si>
     <t>Logan Sargeant</t>
   </si>
   <si>
-    <t>C:/Users/33782/Desktop/Mémoire F1/Picture/sargeant.jpg</t>
-  </si>
-  <si>
     <t>Valtteri Bottas</t>
   </si>
   <si>
-    <t>C:/Users/33782/Desktop/Mémoire F1/Picture/bottas.jpg</t>
-  </si>
-  <si>
     <t>Guanyu Zhou</t>
   </si>
   <si>
-    <t>C:/Users/33782/Desktop/Mémoire F1/Picture/zhou.jpg</t>
-  </si>
-  <si>
     <t>https://raw.githubusercontent.com/Mohbadi/AppF1/main/Picture/albon.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Mohbadi/AppF1/main/Picture/ham.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Mohbadi/AppF1/main/Picture/russel.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Mohbadi/AppF1/main/Picture/verstappen.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Mohbadi/AppF1/main/Picture/perez.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Mohbadi/AppF1/main/Picture/leclerc.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Mohbadi/AppF1/main/Picture/sainz.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Mohbadi/AppF1/main/Picture/norris.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Mohbadi/AppF1/main/Picture/piastri.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Mohbadi/AppF1/main/Picture/ricardo.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Mohbadi/AppF1/main/Picture/tsunoda.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Mohbadi/AppF1/main/Picture/ocon.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Mohbadi/AppF1/main/Picture/gasly.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Mohbadi/AppF1/main/Picture/alonso.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Mohbadi/AppF1/main/Picture/stroll.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Mohbadi/AppF1/main/Picture/hulk.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Mohbadi/AppF1/main/Picture/images.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Mohbadi/AppF1/main/Picture/sargeant.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Mohbadi/AppF1/main/Picture/bottas.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Mohbadi/AppF1/main/Picture/zhou.jpg</t>
   </si>
 </sst>
 </file>
@@ -1020,7 +1020,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1037,165 +1037,184 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
+      <c r="B2" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
+        <v>8</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
+        <v>9</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
+        <v>11</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
+        <v>12</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
+        <v>13</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
+        <v>14</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
+        <v>15</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" t="s">
-        <v>31</v>
+        <v>16</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" t="s">
-        <v>33</v>
+        <v>17</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" t="s">
-        <v>36</v>
+        <v>19</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" t="s">
-        <v>38</v>
+        <v>20</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" t="s">
-        <v>40</v>
+        <v>21</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B18" r:id="rId1" xr:uid="{AEFADA28-D4D7-4758-88F1-53F73689FC00}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{1EF15690-236B-4037-B937-973E50400DA8}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{C8BD398E-0A4A-4800-B46D-C19108A43EBC}"/>
+    <hyperlink ref="B4" r:id="rId4" xr:uid="{490F6746-B4D5-475D-8AEB-8137D8322B07}"/>
+    <hyperlink ref="B5" r:id="rId5" xr:uid="{EFF68AA5-3D38-454E-9E15-BEDBA7295796}"/>
+    <hyperlink ref="B6" r:id="rId6" xr:uid="{917BB3BD-D3CA-4891-822C-6B108709C2E7}"/>
+    <hyperlink ref="B7" r:id="rId7" xr:uid="{6509D956-A240-4A17-8C84-15EE1AAB8EF1}"/>
+    <hyperlink ref="B8" r:id="rId8" xr:uid="{ADB0F512-9D62-485A-96E0-0E18F3458FCA}"/>
+    <hyperlink ref="B9" r:id="rId9" xr:uid="{E719CDAB-99FE-4C7C-91F7-F78A3C489809}"/>
+    <hyperlink ref="B10" r:id="rId10" xr:uid="{A2B1FA77-3208-42BA-8CDE-0BB80BFB57FB}"/>
+    <hyperlink ref="B11" r:id="rId11" xr:uid="{188558BD-862E-4320-B764-B2283D705937}"/>
+    <hyperlink ref="B12" r:id="rId12" xr:uid="{4E66BD8E-FFF7-4070-A9E2-45665279BAC4}"/>
+    <hyperlink ref="B13" r:id="rId13" xr:uid="{B45917FF-D1C4-46A8-9A23-16440ECA87AA}"/>
+    <hyperlink ref="B14" r:id="rId14" xr:uid="{F5591A27-C077-4885-8456-E368CDA80F62}"/>
+    <hyperlink ref="B15" r:id="rId15" xr:uid="{7EE4C195-2018-422D-88EE-DAE326018A11}"/>
+    <hyperlink ref="B16" r:id="rId16" xr:uid="{A2BD7D0F-9ADF-4CDA-A6EC-CE46FB040D68}"/>
+    <hyperlink ref="B17" r:id="rId17" xr:uid="{38744DC8-0FF3-496D-950A-4015096E5A7D}"/>
+    <hyperlink ref="B19" r:id="rId18" xr:uid="{013AD5BB-4B72-4CA1-9DE3-F77B76EAFB2B}"/>
+    <hyperlink ref="B20" r:id="rId19" xr:uid="{5E84D43D-6AED-4CDA-BF35-5AAB10A5A39F}"/>
+    <hyperlink ref="B21" r:id="rId20" xr:uid="{C86B132F-366F-4261-9CDF-D95896EA4FB6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
